--- a/public/userPassword_1.xlsx
+++ b/public/userPassword_1.xlsx
@@ -66,7 +66,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>raju@test.com</t>
+          <t>batekrushna@gmail.com</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -78,7 +78,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>krushnapb@test.com</t>
+          <t>batekrushna9@gmail.com</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -90,180 +90,228 @@
     <row r="4" spans="1:2">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>arunv@test.com</t>
+          <t>kailasanap@gmail.com</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>kailasdbm@test.com</t>
+          <t>raju@umstechlab.com</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>kailasbm@test.com</t>
+          <t>krushnapb@umstechlab.com</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>regionh@test.com</t>
+          <t>arunv@umstechlab.com</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>kailas@test.com</t>
+          <t>kailasdbm@umstechlab.com</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>shashank@test.com</t>
+          <t>kailasbm@umstechlab.com</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>am2pb@test.com</t>
+          <t>regionh@umstechlab.com</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>am2dbm@test.com</t>
+          <t>kailas@umstechlab.com</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>regionhahm2@test.com</t>
+          <t>shashank@umstechlab.com</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>kailasblrpb@test.com</t>
+          <t>am2pb@umstechlab.com</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>kailasdbmblr@test.com</t>
+          <t>am2dbm@umstechlab.com</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>kailasbmblr@test.com</t>
+          <t>regionhahm2@umstechlab.com</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>regionhblr@test.com</t>
+          <t>kailasblrpb@umstechlab.com</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>zonehb@test.com</t>
+          <t>kailasdbmblr@umstechlab.com</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>sachin@test.com</t>
+          <t>kailasbmblr@umstechlab.com</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>isPCalling@1234</t>
+          <t>Test@1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>regionhblr@umstechlab.com</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Test@1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>zonehb@umstechlab.com</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Test@1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>sachin1@umstechlab.com</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Test@1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Nikita@umstechlab.com</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Test@1234</t>
         </is>
       </c>
     </row>
